--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36008819978375</v>
+        <v>1.38698</v>
       </c>
       <c r="H2">
-        <v>1.36008819978375</v>
+        <v>2.77396</v>
       </c>
       <c r="I2">
-        <v>0.6065857471428856</v>
+        <v>0.5967131687073423</v>
       </c>
       <c r="J2">
-        <v>0.6065857471428856</v>
+        <v>0.4965808999056411</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>3.57496704142271</v>
+        <v>0.100211</v>
       </c>
       <c r="N2">
-        <v>3.57496704142271</v>
+        <v>0.200422</v>
       </c>
       <c r="O2">
-        <v>0.6378037454152614</v>
+        <v>0.01587220340208096</v>
       </c>
       <c r="P2">
-        <v>0.6378037454152614</v>
+        <v>0.01193595905534038</v>
       </c>
       <c r="Q2">
-        <v>4.862270487654852</v>
+        <v>0.13899065278</v>
       </c>
       <c r="R2">
-        <v>4.862270487654852</v>
+        <v>0.5559626111199999</v>
       </c>
       <c r="S2">
-        <v>0.3868826614432471</v>
+        <v>0.009471152786423185</v>
       </c>
       <c r="T2">
-        <v>0.3868826614432471</v>
+        <v>0.005927169288937813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36008819978375</v>
+        <v>1.38698</v>
       </c>
       <c r="H3">
-        <v>1.36008819978375</v>
+        <v>2.77396</v>
       </c>
       <c r="I3">
-        <v>0.6065857471428856</v>
+        <v>0.5967131687073423</v>
       </c>
       <c r="J3">
-        <v>0.6065857471428856</v>
+        <v>0.4965808999056411</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03015376120776</v>
+        <v>3.986394333333333</v>
       </c>
       <c r="N3">
-        <v>2.03015376120776</v>
+        <v>11.959183</v>
       </c>
       <c r="O3">
-        <v>0.3621962545847385</v>
+        <v>0.6313963706536166</v>
       </c>
       <c r="P3">
-        <v>0.3621962545847385</v>
+        <v>0.7122188114245082</v>
       </c>
       <c r="Q3">
-        <v>2.761188174365271</v>
+        <v>5.529049212446666</v>
       </c>
       <c r="R3">
-        <v>2.761188174365271</v>
+        <v>33.17429527468</v>
       </c>
       <c r="S3">
-        <v>0.2197030856996384</v>
+        <v>0.3767625290430351</v>
       </c>
       <c r="T3">
-        <v>0.2197030856996384</v>
+        <v>0.3536742583069084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.882114499818045</v>
+        <v>1.38698</v>
       </c>
       <c r="H4">
-        <v>0.882114499818045</v>
+        <v>2.77396</v>
       </c>
       <c r="I4">
-        <v>0.3934142528571143</v>
+        <v>0.5967131687073423</v>
       </c>
       <c r="J4">
-        <v>0.3934142528571143</v>
+        <v>0.4965808999056411</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.57496704142271</v>
+        <v>0.1778183333333333</v>
       </c>
       <c r="N4">
-        <v>3.57496704142271</v>
+        <v>0.533455</v>
       </c>
       <c r="O4">
-        <v>0.6378037454152614</v>
+        <v>0.02816426096222669</v>
       </c>
       <c r="P4">
-        <v>0.6378037454152614</v>
+        <v>0.03176945164635921</v>
       </c>
       <c r="Q4">
-        <v>3.15353026361059</v>
+        <v>0.2466304719666666</v>
       </c>
       <c r="R4">
-        <v>3.15353026361059</v>
+        <v>1.4797828318</v>
       </c>
       <c r="S4">
-        <v>0.2509210839720142</v>
+        <v>0.01680598540307079</v>
       </c>
       <c r="T4">
-        <v>0.2509210839720142</v>
+        <v>0.0157761028880578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -717,52 +717,300 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.882114499818045</v>
+        <v>1.38698</v>
       </c>
       <c r="H5">
-        <v>0.882114499818045</v>
+        <v>2.77396</v>
       </c>
       <c r="I5">
-        <v>0.3934142528571143</v>
+        <v>0.5967131687073423</v>
       </c>
       <c r="J5">
-        <v>0.3934142528571143</v>
+        <v>0.4965808999056411</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.03015376120776</v>
+        <v>2.0491925</v>
       </c>
       <c r="N5">
-        <v>2.03015376120776</v>
+        <v>4.098385</v>
       </c>
       <c r="O5">
-        <v>0.3621962545847385</v>
+        <v>0.3245671649820757</v>
       </c>
       <c r="P5">
-        <v>0.3621962545847385</v>
+        <v>0.2440757778737923</v>
       </c>
       <c r="Q5">
-        <v>1.790828069621506</v>
+        <v>2.84218901365</v>
       </c>
       <c r="R5">
-        <v>1.790828069621506</v>
+        <v>11.3687560546</v>
       </c>
       <c r="S5">
-        <v>0.1424931688851001</v>
+        <v>0.1936735014748131</v>
       </c>
       <c r="T5">
-        <v>0.1424931688851001</v>
+        <v>0.1212033694217372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H6">
+        <v>2.812159</v>
+      </c>
+      <c r="I6">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J6">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.100211</v>
+      </c>
+      <c r="N6">
+        <v>0.200422</v>
+      </c>
+      <c r="O6">
+        <v>0.01587220340208096</v>
+      </c>
+      <c r="P6">
+        <v>0.01193595905534038</v>
+      </c>
+      <c r="Q6">
+        <v>0.09393642184966668</v>
+      </c>
+      <c r="R6">
+        <v>0.563618531098</v>
+      </c>
+      <c r="S6">
+        <v>0.006401050615657771</v>
+      </c>
+      <c r="T6">
+        <v>0.00600878976640257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H7">
+        <v>2.812159</v>
+      </c>
+      <c r="I7">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J7">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.986394333333333</v>
+      </c>
+      <c r="N7">
+        <v>11.959183</v>
+      </c>
+      <c r="O7">
+        <v>0.6313963706536166</v>
+      </c>
+      <c r="P7">
+        <v>0.7122188114245082</v>
+      </c>
+      <c r="Q7">
+        <v>3.736791567344111</v>
+      </c>
+      <c r="R7">
+        <v>33.631124106097</v>
+      </c>
+      <c r="S7">
+        <v>0.2546338416105815</v>
+      </c>
+      <c r="T7">
+        <v>0.3585445531175999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.812159</v>
+      </c>
+      <c r="I8">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J8">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1778183333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.533455</v>
+      </c>
+      <c r="O8">
+        <v>0.02816426096222669</v>
+      </c>
+      <c r="P8">
+        <v>0.03176945164635921</v>
+      </c>
+      <c r="Q8">
+        <v>0.1666844754827778</v>
+      </c>
+      <c r="R8">
+        <v>1.500160279345</v>
+      </c>
+      <c r="S8">
+        <v>0.0113582755591559</v>
+      </c>
+      <c r="T8">
+        <v>0.0159933487583014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.812159</v>
+      </c>
+      <c r="I9">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J9">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.0491925</v>
+      </c>
+      <c r="N9">
+        <v>4.098385</v>
+      </c>
+      <c r="O9">
+        <v>0.3245671649820757</v>
+      </c>
+      <c r="P9">
+        <v>0.2440757778737923</v>
+      </c>
+      <c r="Q9">
+        <v>1.920885043869167</v>
+      </c>
+      <c r="R9">
+        <v>11.525310263215</v>
+      </c>
+      <c r="S9">
+        <v>0.1308936635072626</v>
+      </c>
+      <c r="T9">
+        <v>0.1228724084520552</v>
       </c>
     </row>
   </sheetData>
